--- a/resources/wheels/172 - Степуль.xlsx
+++ b/resources/wheels/172 - Степуль.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -711,16 +711,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,9 +939,9 @@
       <c r="F16" s="23">
         <v>23.6</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>38.699999999999996</v>
+        <v>40.818999999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1051,7 +1051,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1063,7 +1065,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>0.561</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1075,7 +1079,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>1.558</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -1615,16 +1621,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,9 +1849,9 @@
       <c r="F16" s="23">
         <v>23.6</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>38.699999999999996</v>
+        <v>40.818999999999996</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1955,7 +1961,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -1967,7 +1975,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>0.561</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -1979,7 +1989,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>1.558</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -2519,16 +2531,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2747,9 +2759,9 @@
       <c r="F16" s="23">
         <v>72.099999999999994</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>87.199999999999989</v>
+        <v>89.319</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2859,7 +2871,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -2871,7 +2885,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>0.561</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -2883,7 +2899,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>1.558</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -3423,16 +3441,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3649,9 +3667,9 @@
       <c r="F16" s="23">
         <v>72.099999999999994</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>87.199999999999989</v>
+        <v>89.319</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3761,7 +3779,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -3773,7 +3793,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>0.561</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -3785,7 +3807,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>1.558</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -4325,16 +4349,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="20" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="20" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4533,9 +4557,9 @@
       <c r="F16" s="23">
         <v>78.8</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.799999999999983</v>
+        <v>95.919</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4639,7 +4663,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -4649,7 +4675,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>0.561</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -4659,7 +4687,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>1.558</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -5178,16 +5208,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="20" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="20" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5386,9 +5416,9 @@
       <c r="F16" s="23">
         <v>78.8</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>93.799999999999983</v>
+        <v>95.919</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5492,7 +5522,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -5502,7 +5534,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>0.561</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -5512,7 +5546,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>1.558</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>
@@ -6034,16 +6070,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="2" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6256,9 +6292,9 @@
       <c r="F16" s="23">
         <v>150</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>165.10000000000002</v>
+        <v>167.21900000000002</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6368,7 +6404,9 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
     </row>
@@ -6380,7 +6418,9 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="23" t="n">
+        <v>0.561</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
     </row>
@@ -6392,7 +6432,9 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="n">
+        <v>1.558</v>
+      </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
     </row>

--- a/resources/wheels/172 - Степуль.xlsx
+++ b/resources/wheels/172 - Степуль.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="62">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -175,6 +175,42 @@
   </si>
   <si>
     <t>AK 0119-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -706,7 +742,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -941,7 +977,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>40.818999999999996</v>
+        <v>44.144</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1051,8 +1087,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>0.0</v>
+      <c r="F24" s="23">
+        <v>0</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -1065,8 +1101,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>0.561</v>
+      <c r="F25" s="23">
+        <v>0.56100000000000005</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -1079,8 +1115,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>1.558</v>
+      <c r="F26" s="23">
+        <v>1.5580000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -1093,7 +1129,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -1105,7 +1143,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.90800000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -1117,7 +1157,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.138</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -1126,8 +1168,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.572</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -1136,7 +1182,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -1146,7 +1194,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -1156,7 +1206,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -1166,7 +1218,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -1176,7 +1230,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -1186,7 +1242,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -1196,7 +1254,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -1206,7 +1266,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -1216,7 +1278,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -1226,7 +1290,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -1236,7 +1302,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -1615,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1851,7 +1919,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>40.818999999999996</v>
+        <v>44.144</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -1961,8 +2029,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>0.0</v>
+      <c r="F24" s="23">
+        <v>0</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -1975,8 +2043,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>0.561</v>
+      <c r="F25" s="23">
+        <v>0.56100000000000005</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -1989,8 +2057,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>1.558</v>
+      <c r="F26" s="23">
+        <v>1.5580000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -2003,7 +2071,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2015,7 +2085,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.90800000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2027,7 +2099,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.138</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -2036,8 +2110,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.572</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -2046,7 +2124,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2056,7 +2136,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2066,7 +2148,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2076,7 +2160,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2086,7 +2172,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -2096,7 +2184,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -2106,7 +2196,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -2116,7 +2208,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -2126,7 +2220,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -2136,7 +2232,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -2146,7 +2244,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -2526,7 +2626,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2861,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>89.319</v>
+        <v>92.644</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -2871,8 +2971,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>0.0</v>
+      <c r="F24" s="23">
+        <v>0</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -2885,8 +2985,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>0.561</v>
+      <c r="F25" s="23">
+        <v>0.56100000000000005</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -2899,8 +2999,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>1.558</v>
+      <c r="F26" s="23">
+        <v>1.5580000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -2913,7 +3013,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -2925,7 +3027,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.90800000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -2937,7 +3041,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.138</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -2946,8 +3052,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.572</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -2956,7 +3066,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -2966,7 +3078,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -2976,7 +3090,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -2986,7 +3102,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -2996,7 +3114,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -3006,7 +3126,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -3016,7 +3138,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -3026,7 +3150,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -3036,7 +3162,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -3046,7 +3174,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -3056,7 +3186,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -3436,7 +3568,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3669,7 +3801,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>89.319</v>
+        <v>92.644</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -3779,8 +3911,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>0.0</v>
+      <c r="F24" s="23">
+        <v>0</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -3793,8 +3925,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>0.561</v>
+      <c r="F25" s="23">
+        <v>0.56100000000000005</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -3807,8 +3939,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>1.558</v>
+      <c r="F26" s="23">
+        <v>1.5580000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -3821,7 +3953,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -3833,7 +3967,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.90800000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -3845,7 +3981,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.138</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -3854,8 +3992,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.572</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -3864,7 +4006,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3874,7 +4018,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3884,7 +4030,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -3894,7 +4042,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -3904,7 +4054,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -3914,7 +4066,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -3924,7 +4078,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -3934,7 +4090,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -3944,7 +4102,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -3954,7 +4114,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -3964,7 +4126,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -4344,7 +4508,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4559,7 +4723,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>95.919</v>
+        <v>97.198</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -4663,8 +4827,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>0.0</v>
+      <c r="F24" s="23">
+        <v>0</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -4675,8 +4839,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>0.561</v>
+      <c r="F25" s="23">
+        <v>0.56100000000000005</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -4687,8 +4851,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>1.558</v>
+      <c r="F26" s="23">
+        <v>1.5580000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -4699,7 +4863,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -4709,7 +4875,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="23">
+        <v>0.90800000000000003</v>
+      </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4718,14 +4886,20 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="23" t="n">
+        <v>1.138</v>
+      </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.572</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -4733,7 +4907,9 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4742,7 +4918,9 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4751,7 +4929,9 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -4760,7 +4940,9 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -4769,7 +4951,9 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -4778,7 +4962,9 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -4787,7 +4973,9 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -4796,7 +4984,9 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -4805,7 +4995,9 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -4814,7 +5006,9 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -4823,7 +5017,9 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -5203,7 +5399,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5418,7 +5614,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>95.919</v>
+        <v>97.198</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -5522,8 +5718,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>0.0</v>
+      <c r="F24" s="23">
+        <v>0</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -5534,8 +5730,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>0.561</v>
+      <c r="F25" s="23">
+        <v>0.56100000000000005</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -5546,8 +5742,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>1.558</v>
+      <c r="F26" s="23">
+        <v>1.5580000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -5558,7 +5754,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -5568,7 +5766,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="23">
+        <v>0.90800000000000003</v>
+      </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -5577,14 +5777,20 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="23"/>
+      <c r="G29" s="23" t="n">
+        <v>1.138</v>
+      </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.572</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -5592,7 +5798,9 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -5601,7 +5809,9 @@
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -5610,7 +5820,9 @@
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -5619,7 +5831,9 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -5628,7 +5842,9 @@
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -5637,7 +5853,9 @@
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -5646,7 +5864,9 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -5655,7 +5875,9 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -5664,7 +5886,9 @@
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -5673,7 +5897,9 @@
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -5682,7 +5908,9 @@
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
@@ -6065,7 +6293,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E30" sqref="E30:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6294,7 +6522,7 @@
       </c>
       <c r="G16" s="23" t="n">
         <f>SUM(F16:F100)</f>
-        <v>167.21900000000002</v>
+        <v>170.544</v>
       </c>
       <c r="H16" s="5"/>
     </row>
@@ -6404,8 +6632,8 @@
       <c r="E24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="23" t="n">
-        <v>0.0</v>
+      <c r="F24" s="23">
+        <v>0</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="5"/>
@@ -6418,8 +6646,8 @@
       <c r="E25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="23" t="n">
-        <v>0.561</v>
+      <c r="F25" s="23">
+        <v>0.56100000000000005</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="5"/>
@@ -6432,8 +6660,8 @@
       <c r="E26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23" t="n">
-        <v>1.558</v>
+      <c r="F26" s="23">
+        <v>1.5580000000000001</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="5"/>
@@ -6446,7 +6674,9 @@
       <c r="E27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="23">
+        <v>0.70699999999999996</v>
+      </c>
       <c r="G27" s="23"/>
       <c r="H27" s="5"/>
     </row>
@@ -6458,7 +6688,9 @@
       <c r="E28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="23"/>
+      <c r="F28" s="23">
+        <v>0.90800000000000003</v>
+      </c>
       <c r="G28" s="23"/>
       <c r="H28" s="5"/>
     </row>
@@ -6470,7 +6702,9 @@
       <c r="E29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="23"/>
+      <c r="F29" s="23" t="n">
+        <v>1.138</v>
+      </c>
       <c r="G29" s="23"/>
       <c r="H29" s="5"/>
     </row>
@@ -6479,8 +6713,12 @@
       <c r="B30" s="5"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>0.572</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
     </row>
@@ -6489,7 +6727,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="20"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -6499,7 +6739,9 @@
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -6509,7 +6751,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="5"/>
@@ -6519,7 +6763,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="5"/>
@@ -6529,7 +6775,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="5"/>
@@ -6539,7 +6787,9 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="5"/>
@@ -6549,7 +6799,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="5"/>
@@ -6559,7 +6811,9 @@
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="5"/>
@@ -6569,7 +6823,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="5"/>
@@ -6579,7 +6835,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="5"/>
@@ -6589,7 +6847,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="5"/>
